--- a/output/2017-02-15 to 2018-02-14.xlsx
+++ b/output/2017-02-15 to 2018-02-14.xlsx
@@ -163,7 +163,7 @@
     <t>['cfop_DO']</t>
   </si>
   <si>
-    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
+    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
   </si>
   <si>
     <t>['cfop_SELIG']</t>
